--- a/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,49; 86,55</t>
+          <t>63,51; 86,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,46; 84,97</t>
+          <t>61,87; 86,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,48; 97,07</t>
+          <t>80,69; 97,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,62; 95,69</t>
+          <t>79,52; 95,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,88; 97,02</t>
+          <t>86,07; 96,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,34; 93,16</t>
+          <t>81,52; 93,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,17; 90,24</t>
+          <t>76,81; 89,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,56; 90,92</t>
+          <t>79,74; 91,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,57; 93,57</t>
+          <t>84,99; 93,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,61; 96,59</t>
+          <t>81,32; 96,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,74; 96,23</t>
+          <t>82,0; 96,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,24; 98,26</t>
+          <t>88,85; 99,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,3; 95,61</t>
+          <t>81,26; 95,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,7; 94,85</t>
+          <t>85,25; 94,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,97; 98,04</t>
+          <t>91,18; 97,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,02; 98,34</t>
+          <t>92,82; 98,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,89; 95,64</t>
+          <t>85,29; 95,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,19; 94,4</t>
+          <t>86,45; 94,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,82; 96,49</t>
+          <t>89,47; 96,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,35; 97,93</t>
+          <t>93,13; 98,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,81; 94,74</t>
+          <t>85,8; 94,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,42; 98,25</t>
+          <t>83,76; 98,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,87; 97,7</t>
+          <t>87,41; 97,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,6; 95,15</t>
+          <t>81,96; 95,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82,3; 96,08</t>
+          <t>81,9; 96,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,52; 99,02</t>
+          <t>90,59; 99,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,52; 100,0</t>
+          <t>90,66; 99,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,6; 98,14</t>
+          <t>89,02; 98,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,36; 95,16</t>
+          <t>85,01; 95,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,37; 97,65</t>
+          <t>90,57; 98,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 97,87</t>
+          <t>92,12; 98,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,31; 95,78</t>
+          <t>88,36; 95,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,66; 94,92</t>
+          <t>85,88; 94,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,87; 98,27</t>
+          <t>85,42; 98,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,28; 96,77</t>
+          <t>85,16; 96,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,57; 98,83</t>
+          <t>87,56; 98,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,48; 95,03</t>
+          <t>78,09; 94,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,63; 97,65</t>
+          <t>89,01; 97,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,18; 99,04</t>
+          <t>94,05; 99,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,26; 94,94</t>
+          <t>82,14; 94,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,05; 95,78</t>
+          <t>85,79; 96,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,68; 97,28</t>
+          <t>90,55; 97,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,11; 97,34</t>
+          <t>92,42; 97,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,98; 95,0</t>
+          <t>86,53; 95,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,0; 94,24</t>
+          <t>86,18; 94,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,51; 97,93</t>
+          <t>82,12; 97,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,31; 96,18</t>
+          <t>78,25; 96,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,32; 94,46</t>
+          <t>65,1; 96,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,93; 100,0</t>
+          <t>75,65; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>85,61; 97,95</t>
+          <t>86,55; 98,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,29; 97,7</t>
+          <t>86,77; 97,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,13; 100,0</t>
+          <t>88,08; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,8; 94,05</t>
+          <t>71,87; 93,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,92; 96,78</t>
+          <t>87,11; 96,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 95,79</t>
+          <t>85,9; 95,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,58; 96,54</t>
+          <t>83,01; 96,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>78,42; 94,66</t>
+          <t>77,31; 93,99</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,23; 97,87</t>
+          <t>81,96; 98,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,02; 100,0</t>
+          <t>93,97; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,04; 99,18</t>
+          <t>92,81; 99,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,87; 98,87</t>
+          <t>89,88; 98,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,24; 99,23</t>
+          <t>92,37; 99,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,01; 97,25</t>
+          <t>85,29; 97,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,03; 97,19</t>
+          <t>88,87; 97,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,79; 99,14</t>
+          <t>94,48; 98,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,71; 97,67</t>
+          <t>91,02; 97,65</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,53; 95,96</t>
+          <t>87,49; 96,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,47; 95,42</t>
+          <t>86,97; 95,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,79; 96,96</t>
+          <t>87,71; 97,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73,98; 88,93</t>
+          <t>74,28; 89,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,77; 96,95</t>
+          <t>90,64; 97,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,01; 96,06</t>
+          <t>88,69; 96,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,73; 97,69</t>
+          <t>90,68; 97,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>76,71; 87,36</t>
+          <t>77,6; 87,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,55; 95,75</t>
+          <t>90,29; 95,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>89,95; 95,12</t>
+          <t>89,58; 95,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,54; 96,58</t>
+          <t>91,06; 96,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,21; 86,48</t>
+          <t>77,49; 86,43</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>84,5; 93,81</t>
+          <t>84,38; 93,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,43; 97,42</t>
+          <t>88,54; 97,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,32; 92,91</t>
+          <t>84,37; 92,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,33; 95,44</t>
+          <t>85,76; 95,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,57; 96,58</t>
+          <t>90,1; 96,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,37; 98,57</t>
+          <t>92,99; 98,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,27; 94,73</t>
+          <t>87,79; 95,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>89,73; 95,89</t>
+          <t>90,12; 96,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>89,34; 94,8</t>
+          <t>89,43; 94,9</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>92,73; 97,34</t>
+          <t>92,62; 97,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>87,51; 93,24</t>
+          <t>87,7; 93,04</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>90,24; 95,27</t>
+          <t>90,06; 95,25</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>87,93; 92,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,13</t>
+          <t>91,02; 95,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,21</t>
+          <t>89,19; 93,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>86,71; 92,1</t>
+          <t>87,0; 92,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,15; 95,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>94,59; 97,06</t>
+          <t>94,62; 97,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,25</t>
+          <t>92,4; 95,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>87,84; 91,54</t>
+          <t>87,86; 91,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,2; 93,81</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93,64; 95,84</t>
+          <t>93,65; 95,83</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>91,39; 93,85</t>
+          <t>91,43; 93,92</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>88,16; 91,07</t>
+          <t>88,06; 91,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,51; 86,89</t>
+          <t>62,6; 86,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,87; 86,14</t>
+          <t>63,89; 86,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,52; 95,3</t>
+          <t>79,11; 95,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,07; 96,96</t>
+          <t>87,06; 97,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,81; 89,75</t>
+          <t>76,58; 89,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,74; 91,46</t>
+          <t>78,88; 90,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,32; 96,42</t>
+          <t>81,93; 96,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,0; 96,29</t>
+          <t>82,41; 96,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,85; 99,0</t>
+          <t>88,57; 98,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,25; 94,77</t>
+          <t>84,88; 95,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,18; 97,99</t>
+          <t>90,72; 97,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,82; 98,33</t>
+          <t>92,91; 98,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,45; 94,61</t>
+          <t>86,09; 94,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,47; 96,47</t>
+          <t>89,08; 96,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,13; 98,18</t>
+          <t>93,34; 98,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,76; 98,25</t>
+          <t>80,56; 98,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,41; 97,73</t>
+          <t>87,23; 97,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,96; 95,21</t>
+          <t>81,47; 95,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,59; 99,04</t>
+          <t>90,86; 99,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,66; 99,29</t>
+          <t>91,53; 99,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,02; 98,03</t>
+          <t>88,28; 97,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,57; 98,06</t>
+          <t>90,56; 98,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,12; 98,24</t>
+          <t>91,94; 98,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,36; 95,8</t>
+          <t>88,1; 95,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,42; 98,27</t>
+          <t>85,62; 98,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,16; 96,22</t>
+          <t>85,7; 96,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,56; 98,85</t>
+          <t>86,97; 98,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,01; 97,66</t>
+          <t>89,65; 97,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,05; 99,03</t>
+          <t>94,29; 99,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,14; 94,52</t>
+          <t>83,06; 94,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,55; 97,37</t>
+          <t>90,22; 97,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,42; 97,5</t>
+          <t>92,63; 97,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,53; 95,04</t>
+          <t>86,34; 94,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,12; 97,89</t>
+          <t>82,26; 97,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,25; 96,36</t>
+          <t>77,99; 96,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,1; 96,47</t>
+          <t>65,51; 96,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,55; 98,61</t>
+          <t>84,1; 97,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,77; 97,75</t>
+          <t>85,77; 97,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,08; 100,0</t>
+          <t>86,78; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,11; 96,77</t>
+          <t>86,92; 96,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>85,9; 95,74</t>
+          <t>86,06; 95,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>83,01; 96,61</t>
+          <t>82,24; 96,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,96; 98,0</t>
+          <t>81,71; 97,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,97; 100,0</t>
+          <t>94,03; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,88; 98,9</t>
+          <t>88,8; 97,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,37; 99,23</t>
+          <t>93,0; 99,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,87; 97,16</t>
+          <t>89,19; 97,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,48; 98,76</t>
+          <t>94,78; 98,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,49; 96,08</t>
+          <t>87,39; 96,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,97; 95,39</t>
+          <t>87,04; 95,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87,71; 97,03</t>
+          <t>87,88; 97,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,64; 97,21</t>
+          <t>90,24; 97,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,69; 96,39</t>
+          <t>88,76; 96,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,68; 97,35</t>
+          <t>91,01; 97,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,29; 95,85</t>
+          <t>90,62; 96,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>89,58; 95,15</t>
+          <t>89,48; 95,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,06; 96,47</t>
+          <t>91,08; 96,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>84,38; 93,3</t>
+          <t>83,96; 93,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,54; 97,29</t>
+          <t>88,58; 97,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,37; 92,87</t>
+          <t>84,14; 92,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,1; 96,8</t>
+          <t>90,1; 96,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,99; 98,58</t>
+          <t>92,64; 98,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,79; 95,03</t>
+          <t>87,44; 94,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>89,43; 94,9</t>
+          <t>89,06; 94,63</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>92,62; 97,31</t>
+          <t>92,46; 97,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>87,7; 93,04</t>
+          <t>87,53; 93,07</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,78</t>
+          <t>88,05; 92,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,02; 95,13</t>
+          <t>91,07; 94,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>89,19; 93,18</t>
+          <t>88,84; 93,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>92,15; 95,24</t>
+          <t>92,03; 95,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>94,62; 97,06</t>
+          <t>94,58; 97,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>92,4; 95,21</t>
+          <t>92,23; 95,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>91,2; 93,81</t>
+          <t>91,19; 93,84</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93,65; 95,83</t>
+          <t>93,65; 95,91</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>91,43; 93,92</t>
+          <t>91,6; 93,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,6; 86,54</t>
+          <t>62,49; 86,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,89; 86,09</t>
+          <t>62,46; 84,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,69; 97,39</t>
+          <t>82,48; 97,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,11; 95,41</t>
+          <t>79,62; 95,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,06; 97,11</t>
+          <t>86,88; 97,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,52; 93,49</t>
+          <t>81,34; 93,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,58; 89,97</t>
+          <t>76,17; 90,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,88; 90,61</t>
+          <t>79,56; 90,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,99; 93,62</t>
+          <t>84,57; 93,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,93; 96,44</t>
+          <t>82,61; 96,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,41; 96,09</t>
+          <t>82,74; 96,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,57; 98,28</t>
+          <t>88,24; 98,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,26; 95,58</t>
+          <t>80,3; 95,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,88; 95,35</t>
+          <t>84,7; 94,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,72; 97,99</t>
+          <t>90,97; 98,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,91; 98,78</t>
+          <t>93,02; 98,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,29; 95,95</t>
+          <t>84,89; 95,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,09; 94,61</t>
+          <t>86,19; 94,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,08; 96,42</t>
+          <t>89,82; 96,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,34; 98,14</t>
+          <t>93,35; 97,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,8; 94,66</t>
+          <t>85,81; 94,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,56; 98,25</t>
+          <t>81,42; 98,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,23; 97,74</t>
+          <t>86,87; 97,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,47; 95,1</t>
+          <t>81,6; 95,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,9; 96,46</t>
+          <t>82,3; 96,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,86; 99,03</t>
+          <t>90,52; 99,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,53; 99,29</t>
+          <t>90,52; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,28; 97,36</t>
+          <t>88,6; 98,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,01; 95,18</t>
+          <t>84,36; 95,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,56; 98,14</t>
+          <t>90,37; 97,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,94; 98,23</t>
+          <t>91,63; 97,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,1; 95,66</t>
+          <t>88,31; 95,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,88; 94,66</t>
+          <t>86,66; 94,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,62; 98,31</t>
+          <t>85,87; 98,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,7; 96,78</t>
+          <t>86,28; 96,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,97; 98,89</t>
+          <t>87,57; 98,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,09; 94,97</t>
+          <t>79,48; 95,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,65; 97,66</t>
+          <t>89,63; 97,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,29; 99,01</t>
+          <t>94,18; 99,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,06; 94,91</t>
+          <t>82,26; 94,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,79; 96,05</t>
+          <t>85,05; 95,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,22; 97,26</t>
+          <t>90,68; 97,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,63; 97,39</t>
+          <t>92,11; 97,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,34; 94,85</t>
+          <t>86,98; 95,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,18; 94,34</t>
+          <t>86,0; 94,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,26; 97,98</t>
+          <t>81,51; 97,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,99; 96,34</t>
+          <t>78,31; 96,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,51; 96,38</t>
+          <t>65,32; 94,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,65; 100,0</t>
+          <t>76,93; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,1; 97,97</t>
+          <t>85,61; 97,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,77; 97,7</t>
+          <t>87,29; 97,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,78; 100,0</t>
+          <t>87,13; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>71,87; 93,84</t>
+          <t>70,8; 94,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,92; 96,76</t>
+          <t>86,92; 96,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>86,06; 95,72</t>
+          <t>86,69; 95,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,24; 96,6</t>
+          <t>82,58; 96,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,31; 93,99</t>
+          <t>78,42; 94,66</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,71; 97,98</t>
+          <t>80,23; 97,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,03; 100,0</t>
+          <t>94,02; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,81; 99,16</t>
+          <t>93,04; 99,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,8; 97,87</t>
+          <t>89,87; 98,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,0; 99,24</t>
+          <t>92,24; 99,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,29; 97,19</t>
+          <t>86,01; 97,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>89,19; 97,75</t>
+          <t>90,03; 97,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,78; 98,79</t>
+          <t>94,79; 99,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>91,02; 97,65</t>
+          <t>90,71; 97,67</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,39; 96,02</t>
+          <t>87,53; 95,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,04; 95,32</t>
+          <t>86,47; 95,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87,88; 97,04</t>
+          <t>86,79; 96,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,28; 89,35</t>
+          <t>73,98; 88,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,24; 97,04</t>
+          <t>89,77; 96,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,76; 96,44</t>
+          <t>89,01; 96,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,01; 97,47</t>
+          <t>90,73; 97,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>77,6; 87,6</t>
+          <t>76,71; 87,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,62; 96,01</t>
+          <t>90,55; 95,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>89,48; 95,2</t>
+          <t>89,95; 95,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,08; 96,5</t>
+          <t>91,54; 96,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>77,49; 86,43</t>
+          <t>78,21; 86,48</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>83,96; 93,83</t>
+          <t>84,5; 93,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,58; 97,29</t>
+          <t>88,43; 97,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,14; 92,64</t>
+          <t>84,32; 92,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>85,76; 95,52</t>
+          <t>86,33; 95,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,1; 96,7</t>
+          <t>90,57; 96,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,64; 98,57</t>
+          <t>92,37; 98,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,44; 94,99</t>
+          <t>87,27; 94,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>90,12; 96,08</t>
+          <t>89,73; 95,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>89,06; 94,63</t>
+          <t>89,34; 94,8</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>92,46; 97,3</t>
+          <t>92,73; 97,34</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>87,53; 93,07</t>
+          <t>87,51; 93,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>90,06; 95,25</t>
+          <t>90,24; 95,27</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>88,05; 92,54</t>
+          <t>87,93; 92,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,07; 94,92</t>
+          <t>91,06; 95,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>88,84; 93,23</t>
+          <t>88,97; 93,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>87,0; 92,01</t>
+          <t>86,71; 92,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>92,03; 95,2</t>
+          <t>92,06; 95,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>94,58; 97,08</t>
+          <t>94,59; 97,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>92,23; 95,13</t>
+          <t>92,32; 95,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>87,86; 91,53</t>
+          <t>87,84; 91,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>91,19; 93,84</t>
+          <t>91,35; 93,88</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93,65; 95,91</t>
+          <t>93,64; 95,84</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>91,6; 93,93</t>
+          <t>91,39; 93,85</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>88,06; 91,11</t>
+          <t>88,16; 91,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,9%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,87; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,48; 97,07</t>
+          <t>81,95; 97,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,38; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,34; 93,16</t>
+          <t>80,89; 93,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,21; 99,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,57; 93,57</t>
+          <t>84,81; 93,87</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>91,05%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,3; 95,61</t>
+          <t>80,68; 95,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,89; 95,64</t>
+          <t>85,7; 95,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,81; 94,74</t>
+          <t>85,97; 94,79</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>91,01%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82,3; 96,08</t>
+          <t>81,61; 95,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,36; 95,16</t>
+          <t>84,44; 95,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,66; 94,92</t>
+          <t>86,52; 94,91</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>92,91%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,28; 96,77</t>
+          <t>77,75; 95,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,48; 95,03</t>
+          <t>79,17; 95,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,18; 99,04</t>
+          <t>91,62; 99,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,05; 95,78</t>
+          <t>88,58; 98,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,11; 97,34</t>
+          <t>88,53; 97,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,0; 94,24</t>
+          <t>87,92; 97,31</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>88,78%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,93; 100,0</t>
+          <t>76,73; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,8; 94,05</t>
+          <t>72,22; 94,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>78,42; 94,66</t>
+          <t>79,07; 94,62</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,04; 99,18</t>
+          <t>93,19; 99,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,01; 97,25</t>
+          <t>86,06; 97,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,71; 97,67</t>
+          <t>90,87; 97,69</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>82,7%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73,98; 88,93</t>
+          <t>74,03; 88,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>76,71; 87,36</t>
+          <t>76,77; 87,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,21; 86,48</t>
+          <t>78,17; 86,54</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,88%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,33; 95,44</t>
+          <t>86,31; 95,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>89,73; 95,89</t>
+          <t>89,72; 95,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>90,24; 95,27</t>
+          <t>90,18; 95,21</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>90,03%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>86,71; 92,1</t>
+          <t>86,62; 92,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>87,84; 91,54</t>
+          <t>88,3; 92,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>88,16; 91,07</t>
+          <t>88,32; 91,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,49; 86,55</t>
+          <t>63,14; 86,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,87; 100,0</t>
+          <t>90,4; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,46; 84,97</t>
+          <t>64,33; 86,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,95; 97,08</t>
+          <t>80,23; 97,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,62; 95,69</t>
+          <t>79,2; 95,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,38; 100,0</t>
+          <t>93,46; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,88; 97,02</t>
+          <t>86,96; 97,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,89; 93,07</t>
+          <t>81,45; 92,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,17; 90,24</t>
+          <t>75,24; 89,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,21; 99,34</t>
+          <t>93,99; 99,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,56; 90,92</t>
+          <t>79,51; 91,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,81; 93,87</t>
+          <t>83,66; 93,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,61; 96,59</t>
+          <t>82,41; 96,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,74; 96,23</t>
+          <t>82,56; 96,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,24; 98,26</t>
+          <t>87,62; 99,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,68; 95,71</t>
+          <t>82,07; 95,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,7; 94,85</t>
+          <t>84,7; 94,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,97; 98,04</t>
+          <t>90,62; 97,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,02; 98,34</t>
+          <t>92,57; 98,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,7; 95,76</t>
+          <t>85,59; 96,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,19; 94,4</t>
+          <t>86,66; 94,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,82; 96,49</t>
+          <t>89,57; 96,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,35; 97,93</t>
+          <t>92,7; 97,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,97; 94,79</t>
+          <t>85,87; 94,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,42; 98,25</t>
+          <t>81,27; 98,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,87; 97,7</t>
+          <t>87,67; 97,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,6; 95,15</t>
+          <t>81,97; 95,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,61; 95,89</t>
+          <t>80,74; 96,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,52; 99,02</t>
+          <t>91,43; 99,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,52; 100,0</t>
+          <t>90,37; 99,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,6; 98,14</t>
+          <t>88,68; 97,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,44; 95,18</t>
+          <t>84,73; 95,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,37; 97,65</t>
+          <t>90,52; 98,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 97,87</t>
+          <t>91,66; 97,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,31; 95,78</t>
+          <t>88,44; 95,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,52; 94,91</t>
+          <t>85,78; 94,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,87; 98,27</t>
+          <t>87,12; 98,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,75; 95,66</t>
+          <t>78,6; 95,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,57; 98,83</t>
+          <t>87,79; 98,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,17; 95,0</t>
+          <t>79,54; 95,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,63; 97,65</t>
+          <t>89,59; 97,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,62; 99,13</t>
+          <t>92,12; 99,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,26; 94,94</t>
+          <t>82,74; 94,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,58; 98,43</t>
+          <t>88,48; 98,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,68; 97,28</t>
+          <t>90,36; 97,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88,53; 97,07</t>
+          <t>88,51; 96,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,98; 95,0</t>
+          <t>86,8; 95,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,92; 97,31</t>
+          <t>87,71; 97,15</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,51; 97,93</t>
+          <t>81,54; 97,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,31; 96,18</t>
+          <t>78,13; 96,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,32; 94,46</t>
+          <t>64,69; 96,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,73; 100,0</t>
+          <t>76,07; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>85,61; 97,95</t>
+          <t>84,67; 97,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,29; 97,7</t>
+          <t>86,82; 96,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,13; 100,0</t>
+          <t>88,09; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,22; 94,22</t>
+          <t>73,11; 93,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,92; 96,78</t>
+          <t>86,34; 96,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 95,79</t>
+          <t>86,16; 95,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,58; 96,54</t>
+          <t>83,52; 96,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>79,07; 94,62</t>
+          <t>79,94; 94,34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,23; 97,87</t>
+          <t>81,58; 97,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,17 +1435,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,02; 100,0</t>
+          <t>93,97; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,19; 99,21</t>
+          <t>92,2; 99,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,87; 98,87</t>
+          <t>89,83; 98,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,17 +1455,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,24; 99,23</t>
+          <t>92,18; 99,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,06; 97,23</t>
+          <t>85,55; 97,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,03; 97,19</t>
+          <t>89,21; 97,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,79; 99,14</t>
+          <t>94,75; 98,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,87; 97,69</t>
+          <t>90,57; 97,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,53; 95,96</t>
+          <t>87,47; 96,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,47; 95,42</t>
+          <t>86,81; 95,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,79; 96,96</t>
+          <t>88,82; 97,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,03; 88,92</t>
+          <t>73,84; 89,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,77; 96,95</t>
+          <t>90,24; 96,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,01; 96,06</t>
+          <t>88,75; 96,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,73; 97,69</t>
+          <t>90,38; 97,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>76,77; 87,38</t>
+          <t>77,38; 87,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,55; 95,75</t>
+          <t>90,78; 96,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>89,95; 95,12</t>
+          <t>89,38; 94,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,54; 96,58</t>
+          <t>91,11; 96,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,17; 86,54</t>
+          <t>78,23; 86,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>84,5; 93,81</t>
+          <t>84,13; 93,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,43; 97,42</t>
+          <t>88,46; 97,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,32; 92,91</t>
+          <t>84,08; 92,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,31; 95,48</t>
+          <t>86,28; 95,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,57; 96,58</t>
+          <t>90,11; 96,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,37; 98,57</t>
+          <t>92,93; 98,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,27; 94,73</t>
+          <t>87,34; 94,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>89,72; 95,86</t>
+          <t>90,66; 96,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>89,34; 94,8</t>
+          <t>89,22; 94,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>92,73; 97,34</t>
+          <t>92,08; 97,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>87,51; 93,24</t>
+          <t>87,61; 93,1</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>90,18; 95,21</t>
+          <t>89,87; 95,1</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>88,23; 92,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,13</t>
+          <t>91,07; 95,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,21</t>
+          <t>89,0; 93,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>86,62; 92,09</t>
+          <t>87,11; 92,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,25; 95,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>94,59; 97,06</t>
+          <t>94,61; 97,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,25</t>
+          <t>92,2; 95,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>88,3; 92,72</t>
+          <t>88,42; 92,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,25; 93,91</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93,64; 95,84</t>
+          <t>93,64; 95,83</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>91,39; 93,85</t>
+          <t>91,45; 93,92</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>88,32; 91,78</t>
+          <t>88,47; 91,88</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico de la seguridad social en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37581</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59828</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>52341</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>64404</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>59458</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>92739</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87240</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>66360</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>97039</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>152568</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>139581</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>130764</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31195; 42929</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>55837; 61764</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44223; 59324</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56319; 68332</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>52422; 63365</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>88561; 94762</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>81481; 90911</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61298; 69974</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>86983; 103548</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>147117; 155525</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>129168; 148104</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>121691; 135978</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>81320</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>94621</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>104633</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>74205</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>120128</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>148181</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>173388</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>88679</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>201448</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>242802</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>278021</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>162884</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>73398; 86038</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>85632; 99950</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>96068; 108561</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>67493; 78941</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>112023; 125260</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>140851; 152294</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>166340; 177521</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>82728; 92936</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>191785; 209578</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>232127; 249976</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>268219; 283283</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>153621; 169489</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51003</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>75536</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>65384</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>57589</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96745</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>134539</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96715</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68994</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>147748</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>210075</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>162099</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>126583</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44328; 53600</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>70375; 78433</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>59452; 69181</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51110; 61105</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91903; 99552</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>125737; 138135</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>90908; 100284</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>64206; 72416</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>140356; 152265</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>201106; 214886</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>154807; 167826</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>119303; 131430</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48705</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62332</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>83004</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62704</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>113335</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>105881</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>120280</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>160392</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>162039</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>168213</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>203286</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>223096</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44836; 50615</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>54953; 66923</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>76882; 86561</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55886; 66910</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>107438; 117130</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>101012; 108704</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>111017; 127059</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>150272; 167607</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>154859; 166744</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>158930; 173779</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>192488; 211751</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>210595; 233273</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41127</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46528</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24554</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16864</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>71356</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>85088</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>48781</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24434</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>112483</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>131616</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>73334</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>41299</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36464; 43761</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>40621; 50130</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18874; 28109</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13877; 18243</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>64450; 74528</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79045; 88221</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44680; 50720</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20673; 26503</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>104330; 116865</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>123240; 136995</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>66727; 77154</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37186; 43886</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>42152</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>78706</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>103003</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>51445</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>82712</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>105119</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>119186</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>54453</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>124864</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>183825</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>222189</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>105898</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>37432; 44944</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>76723; 78706</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>98710; 105041</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>48761; 52442</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>77756; 85612</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>103144; 105119</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>113390; 122060</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>49950; 56633</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>118162; 128839</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>181833; 183825</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>216065; 225295</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100779; 108479</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>131222</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>153409</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>140370</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>117828</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>202674</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>206455</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>175892</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>161995</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>333895</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>359865</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>316262</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>279823</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>123757; 136140</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>145002; 159118</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>133258; 145839</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>105251; 126885</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>194079; 208478</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>196328; 212987</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>167565; 180699</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>151521; 171349</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>323672; 342574</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>347015; 368645</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>305590; 323587</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>264677; 292322</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>160931</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>146152</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>197126</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>130148</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>236875</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>212170</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>250807</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>184021</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>397805</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>358322</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>447933</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>314169</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>150793; 168014</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>137511; 151116</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>185873; 204699</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>122244; 135380</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>226835; 243289</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>204608; 216978</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>238659; 259006</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>178207; 189354</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>384523; 408038</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>345879; 365145</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>433070; 460236</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>303969; 321677</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1675</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>594040</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>717114</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>770415</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>575187</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>983282</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1090170</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1072288</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>809327</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1577321</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1807284</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1842702</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1384514</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>578628; 608216</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>700171; 731094</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>751017; 785293</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>558659; 590780</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>967160; 998057</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1075256; 1103167</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1053380; 1087911</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>792725; 830583</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1555133; 1600341</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1784154; 1825881</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1816540; 1865449</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1360526; 1413011</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>